--- a/H12R10/Released/BOM/H12R10.xlsx
+++ b/H12R10/Released/BOM/H12R10.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H12R1x-Hardware\H12R01\Released\BOM\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\HEXABITZ\Modules\Hardware\Modules Hardware Design\H12R1x-Hardware\H12R10\Released\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1155B1C2-E063-456A-9255-866C5426405B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84DB9C72-215B-4D98-8A7E-2E10530FB07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -101,16 +101,7 @@
     <t>Vishay</t>
   </si>
   <si>
-    <t>PCB Header, Unshrouded, Thru 02 Straight Header, .101, AMPMODU Mod II Series</t>
-  </si>
-  <si>
     <t>TE Connectivity</t>
-  </si>
-  <si>
-    <t>87227-1</t>
-  </si>
-  <si>
-    <t>https://octopart.com/87227-1-te+connectivity-39512052?r=sp</t>
   </si>
   <si>
     <t>Conn Unshrouded Header HDR 3 POS 2.54mm Solder ST Top Entry Thru-Hole Carton</t>
@@ -487,6 +478,15 @@
   </si>
   <si>
     <t>https://octopart.com/erj-p03f4702v-panasonic-20363675?r=sp</t>
+  </si>
+  <si>
+    <t>Headers &amp; Wire Housings Unshrouded 1 POS T/H</t>
+  </si>
+  <si>
+    <t>5-146280-1</t>
+  </si>
+  <si>
+    <t>https://octopart.com/5-146280-1-te+connectivity+%2F+amp-40259676?r=sp</t>
   </si>
 </sst>
 </file>
@@ -1619,7 +1619,7 @@
   <dimension ref="A2:G34"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="B9" sqref="B9:E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -1675,7 +1675,7 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C5" s="4" t="s">
         <v>12</v>
@@ -1692,7 +1692,7 @@
         <v>10</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="C6" s="4" t="s">
         <v>14</v>
@@ -1724,19 +1724,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B9" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="C9" s="13" t="s">
+        <v>138</v>
+      </c>
+      <c r="D9" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>22</v>
-      </c>
       <c r="E9" s="17" t="s">
-        <v>24</v>
+        <v>139</v>
       </c>
       <c r="F9" s="14">
         <v>1</v>
@@ -1744,19 +1744,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D10" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E10" s="17" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F10" s="14">
         <v>1</v>
@@ -1764,19 +1764,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C11" s="13">
         <v>1984646</v>
       </c>
       <c r="D11" s="13" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="E11" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="F11" s="14">
         <v>1</v>
@@ -1784,19 +1784,19 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="13" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B12" s="13" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C12" s="13" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="D12" s="13" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E12" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F12" s="14">
         <v>1</v>
@@ -1804,19 +1804,19 @@
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
+        <v>95</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>96</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="13" t="s">
         <v>98</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="E13" s="17" t="s">
         <v>99</v>
-      </c>
-      <c r="C13" s="13" t="s">
-        <v>100</v>
-      </c>
-      <c r="D13" s="13" t="s">
-        <v>101</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>102</v>
       </c>
       <c r="F13" s="14">
         <v>1</v>
@@ -1824,19 +1824,19 @@
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="13" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B14" s="13" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C14" s="13" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D14" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="17" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="F14" s="14">
         <v>2</v>
@@ -1844,19 +1844,19 @@
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C15" s="13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D15" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="17" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F15" s="14">
         <v>1</v>
@@ -1864,19 +1864,19 @@
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="13" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="B16" s="13" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C16" s="13" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="D16" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E16" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="F16" s="14">
         <v>2</v>
@@ -1884,19 +1884,19 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C17" s="13" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D17" s="13" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="17" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F17" s="14">
         <v>1</v>
@@ -1904,19 +1904,19 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C18" s="13" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D18" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E18" s="17" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F18" s="14">
         <v>1</v>
@@ -1924,19 +1924,19 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" s="13" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="B19" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>77</v>
+      </c>
+      <c r="D19" s="13" t="s">
+        <v>78</v>
+      </c>
+      <c r="E19" s="17" t="s">
         <v>79</v>
-      </c>
-      <c r="C19" s="13" t="s">
-        <v>80</v>
-      </c>
-      <c r="D19" s="13" t="s">
-        <v>81</v>
-      </c>
-      <c r="E19" s="17" t="s">
-        <v>82</v>
       </c>
       <c r="F19" s="14">
         <v>2</v>
@@ -1944,19 +1944,19 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
+        <v>84</v>
+      </c>
+      <c r="B20" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="13" t="s">
         <v>87</v>
       </c>
-      <c r="B20" s="13" t="s">
+      <c r="E20" s="17" t="s">
         <v>88</v>
-      </c>
-      <c r="C20" s="13" t="s">
-        <v>89</v>
-      </c>
-      <c r="D20" s="13" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" s="17" t="s">
-        <v>91</v>
       </c>
       <c r="F20" s="14">
         <v>1</v>
@@ -1964,19 +1964,19 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="B21" s="13" t="s">
+        <v>90</v>
+      </c>
+      <c r="C21" s="13" t="s">
+        <v>91</v>
+      </c>
+      <c r="D21" s="13" t="s">
         <v>92</v>
       </c>
-      <c r="B21" s="13" t="s">
+      <c r="E21" s="17" t="s">
         <v>93</v>
-      </c>
-      <c r="C21" s="13" t="s">
-        <v>94</v>
-      </c>
-      <c r="D21" s="13" t="s">
-        <v>95</v>
-      </c>
-      <c r="E21" s="17" t="s">
-        <v>96</v>
       </c>
       <c r="F21" s="14">
         <v>1</v>
@@ -1984,19 +1984,19 @@
     </row>
     <row r="22" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A22" s="13" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B22" s="13" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C22" s="13" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="D22" s="13" t="s">
         <v>15</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="F22" s="14">
         <v>7</v>
@@ -2004,19 +2004,19 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B23" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="E23" s="17" t="s">
         <v>75</v>
-      </c>
-      <c r="C23" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D23" s="13" t="s">
-        <v>76</v>
-      </c>
-      <c r="E23" s="17" t="s">
-        <v>78</v>
       </c>
       <c r="F23" s="14">
         <v>2</v>
@@ -2024,19 +2024,19 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C24" s="13" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="D24" s="13" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E24" s="17" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="F24" s="14">
         <v>1</v>
@@ -2044,10 +2044,10 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="13" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C25" s="13" t="s">
         <v>18</v>
@@ -2064,19 +2064,19 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="13" t="s">
         <v>130</v>
       </c>
-      <c r="B26" s="13" t="s">
-        <v>133</v>
-      </c>
       <c r="C26" s="13" t="s">
+        <v>128</v>
+      </c>
+      <c r="D26" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="E26" s="17" t="s">
         <v>131</v>
-      </c>
-      <c r="D26" s="13" t="s">
-        <v>132</v>
-      </c>
-      <c r="E26" s="17" t="s">
-        <v>134</v>
       </c>
       <c r="F26" s="14">
         <v>2</v>
@@ -2084,19 +2084,19 @@
     </row>
     <row r="27" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="B27" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="C27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="B27" s="13" t="s">
+      <c r="D27" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E27" s="17" t="s">
         <v>34</v>
-      </c>
-      <c r="C27" s="13" t="s">
-        <v>36</v>
-      </c>
-      <c r="D27" s="13" t="s">
-        <v>35</v>
-      </c>
-      <c r="E27" s="17" t="s">
-        <v>37</v>
       </c>
       <c r="F27" s="14">
         <v>1</v>
@@ -2104,19 +2104,19 @@
     </row>
     <row r="28" spans="1:6" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C28" s="13" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="D28" s="13" t="s">
         <v>20</v>
       </c>
       <c r="E28" s="17" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="F28" s="14">
         <v>1</v>
@@ -2124,19 +2124,19 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B29" s="13" t="s">
+        <v>114</v>
+      </c>
+      <c r="C29" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="B29" s="13" t="s">
+      <c r="D29" s="13" t="s">
+        <v>115</v>
+      </c>
+      <c r="E29" s="17" t="s">
         <v>117</v>
-      </c>
-      <c r="C29" s="13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" s="13" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="17" t="s">
-        <v>120</v>
       </c>
       <c r="F29" s="14">
         <v>2</v>
@@ -2144,19 +2144,19 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B30" s="13" t="s">
+        <v>108</v>
+      </c>
+      <c r="C30" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="D30" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="E30" s="17" t="s">
         <v>111</v>
-      </c>
-      <c r="C30" s="13" t="s">
-        <v>112</v>
-      </c>
-      <c r="D30" s="13" t="s">
-        <v>113</v>
-      </c>
-      <c r="E30" s="17" t="s">
-        <v>114</v>
       </c>
       <c r="F30" s="14">
         <v>1</v>
@@ -2164,19 +2164,19 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
+        <v>36</v>
+      </c>
+      <c r="B31" s="13" t="s">
+        <v>37</v>
+      </c>
+      <c r="C31" s="13" t="s">
+        <v>35</v>
+      </c>
+      <c r="D31" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="E31" s="17" t="s">
         <v>39</v>
-      </c>
-      <c r="B31" s="13" t="s">
-        <v>40</v>
-      </c>
-      <c r="C31" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="D31" s="13" t="s">
-        <v>41</v>
-      </c>
-      <c r="E31" s="17" t="s">
-        <v>42</v>
       </c>
       <c r="F31" s="14">
         <v>1</v>
@@ -2184,19 +2184,19 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="B32" s="13" t="s">
+        <v>104</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>106</v>
+      </c>
+      <c r="D32" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="E32" s="17" t="s">
         <v>107</v>
-      </c>
-      <c r="C32" s="13" t="s">
-        <v>109</v>
-      </c>
-      <c r="D32" s="13" t="s">
-        <v>108</v>
-      </c>
-      <c r="E32" s="17" t="s">
-        <v>110</v>
       </c>
       <c r="F32" s="15">
         <v>1</v>
@@ -2204,19 +2204,19 @@
     </row>
     <row r="33" spans="1:6" ht="29.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="C33" s="13" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="D33" s="13" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E33" s="17" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="F33" s="15">
         <v>1</v>
@@ -2224,19 +2224,19 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C34" s="13" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D34" s="13" t="s">
         <v>16</v>
       </c>
       <c r="E34" s="17" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="F34" s="15">
         <v>1</v>
@@ -2259,21 +2259,20 @@
     <hyperlink ref="E27" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
     <hyperlink ref="E25" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
     <hyperlink ref="E24" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="E9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="E11" r:id="rId12" xr:uid="{F51EB764-7CD3-4EA3-8941-727B42B72D39}"/>
-    <hyperlink ref="E13" r:id="rId13" xr:uid="{835C87F1-E939-49D2-B94B-565269E93A6B}"/>
-    <hyperlink ref="E18" r:id="rId14" xr:uid="{8612D279-F6C5-4ACA-9309-C0BAC98101F2}"/>
-    <hyperlink ref="E19" r:id="rId15" xr:uid="{B80FCCF9-8ED6-419E-9C8C-7BEDDCA32F42}"/>
-    <hyperlink ref="E20" r:id="rId16" xr:uid="{4E79EBB1-EF19-4F24-A6F8-10C9BD25DF9A}"/>
-    <hyperlink ref="E21" r:id="rId17" xr:uid="{1A762121-AA06-49F9-8094-714EBBDCBEC8}"/>
-    <hyperlink ref="E23" r:id="rId18" xr:uid="{7E7AB777-BE17-4504-AC40-9C0F52D30232}"/>
-    <hyperlink ref="E29" r:id="rId19" xr:uid="{C2145A89-E37C-481A-BDED-F9E4F36FB4A5}"/>
-    <hyperlink ref="E30" r:id="rId20" xr:uid="{B8C6F958-E949-4E13-88F7-ABD647F1F919}"/>
-    <hyperlink ref="E32" r:id="rId21" xr:uid="{4E38E919-C9D9-455D-B9B1-DBA220E4165A}"/>
-    <hyperlink ref="E33" r:id="rId22" xr:uid="{4EFE3138-11D1-452F-9BE0-403E76D64F17}"/>
+    <hyperlink ref="E11" r:id="rId11" xr:uid="{F51EB764-7CD3-4EA3-8941-727B42B72D39}"/>
+    <hyperlink ref="E13" r:id="rId12" xr:uid="{835C87F1-E939-49D2-B94B-565269E93A6B}"/>
+    <hyperlink ref="E18" r:id="rId13" xr:uid="{8612D279-F6C5-4ACA-9309-C0BAC98101F2}"/>
+    <hyperlink ref="E19" r:id="rId14" xr:uid="{B80FCCF9-8ED6-419E-9C8C-7BEDDCA32F42}"/>
+    <hyperlink ref="E20" r:id="rId15" xr:uid="{4E79EBB1-EF19-4F24-A6F8-10C9BD25DF9A}"/>
+    <hyperlink ref="E21" r:id="rId16" xr:uid="{1A762121-AA06-49F9-8094-714EBBDCBEC8}"/>
+    <hyperlink ref="E23" r:id="rId17" xr:uid="{7E7AB777-BE17-4504-AC40-9C0F52D30232}"/>
+    <hyperlink ref="E29" r:id="rId18" xr:uid="{C2145A89-E37C-481A-BDED-F9E4F36FB4A5}"/>
+    <hyperlink ref="E30" r:id="rId19" xr:uid="{B8C6F958-E949-4E13-88F7-ABD647F1F919}"/>
+    <hyperlink ref="E32" r:id="rId20" xr:uid="{4E38E919-C9D9-455D-B9B1-DBA220E4165A}"/>
+    <hyperlink ref="E33" r:id="rId21" xr:uid="{4EFE3138-11D1-452F-9BE0-403E76D64F17}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId23"/>
-  <drawing r:id="rId24"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId22"/>
+  <drawing r:id="rId23"/>
 </worksheet>
 </file>